--- a/02_Line_crossing_object_counting/Line_crossing_object_counting_usbcam/exe/tinyyolov3_crossing/tinyyolov3_crossing_summary.xlsx
+++ b/02_Line_crossing_object_counting/Line_crossing_object_counting_usbcam/exe/tinyyolov3_crossing/tinyyolov3_crossing_summary.xlsx
@@ -834,7 +834,7 @@
         <v>416</v>
       </c>
       <c r="S6" t="n">
-        <v>3985</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>30628</v>
+        <v>28307</v>
       </c>
     </row>
     <row r="33">
